--- a/biology/Botanique/Ulmaceae/Ulmaceae.xlsx
+++ b/biology/Botanique/Ulmaceae/Ulmaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ulmaceae (Les Ulmacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Rosales. Elle comprend près de 200 espèces réparties en 8 à 15 genres.
 Ce sont des arbres ou des arbustes largement répartis dans les zones tempérées et tropicales.
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ulmus qui est le nom latin de l'orme[1].
-Le nom proviendrait du mot akkadien u’ulum, plier[2]. Le nom commun anglais « elm » pourrait provenir de la racine indo-européenne "el-" brun-rouge [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ulmus qui est le nom latin de l'orme.
+Le nom proviendrait du mot akkadien u’ulum, plier. Le nom commun anglais « elm » pourrait provenir de la racine indo-européenne "el-" brun-rouge .
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4], la famille des Ulmaceae est assignée à l'ordre des Urticales.
-En classification phylogénétique APG II (2003)[5], cette famille qui fait partie des Rosales est plus petite, l'APG II assignant le genre Celtis et al. aux Cannabacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), la famille des Ulmaceae est assignée à l'ordre des Urticales.
+En classification phylogénétique APG II (2003), cette famille qui fait partie des Rosales est plus petite, l'APG II assignant le genre Celtis et al. aux Cannabacées.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (31 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (31 mai 2010) :
 genre Ampelocera Klotzsch
 genre Chaetachme Planchon
 genre Hemiptelea Planchon
@@ -589,7 +607,7 @@
 genre Planera J.F.Gmelin
 genre Ulmus L.
 genre Zelkova Spach
-Selon NCBI  (31 mai 2010)[7] :
+Selon NCBI  (31 mai 2010) :
 genre Ampelocera
 genre Aphananthe
 genre Celtis
@@ -604,7 +622,7 @@
 genre Ulmus
 genre Zelkova
 Les genres Aphananthe, Celtis, Gironniera, Lozanella, Parasponia, Pteroceltis et Trema sont placés par Angiosperm Phylogeny Website dans Cannabaceae.
-Selon DELTA Angio           (31 mai 2010)[8] :
+Selon DELTA Angio           (31 mai 2010) :
 genre Ampelocera
 genre Aphananthe
 genre Celtis
@@ -620,7 +638,7 @@
 genre Trema
 genre Ulmus
 genre Zelkova
-Selon ITIS      (31 mai 2010)[9] :
+Selon ITIS      (31 mai 2010) :
 genre Celtis L.
 genre Planera J.F. Gmel.
 genre Trema Lour.
@@ -654,9 +672,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 mai 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 mai 2010) :
 genre Ampelocera
 Ampelocera hottleyi
 genre Aphananthe
